--- a/monkey.xlsx
+++ b/monkey.xlsx
@@ -66,6 +66,5471 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8866-4FCB-BB14-86BBE7D52B66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD47-4298-ADBD-B82046F927F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08E2-4F35-B7E7-73BB0ED7BD39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75A9-4126-A9FD-6A4538695EC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9B9-458A-B596-696FE090809C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F827-455D-85FE-FB6B663DBC1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C50-486D-97A8-03F6EBA1DA69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE8C-43FD-807A-0FFF640FC022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74EA-4ADC-B5F8-9DBBDC309449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98F6-4543-89C8-9003D9C92763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F809-4A9B-91F4-DA5CAED93668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3392-4322-BEF1-7D82F4C0AAA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6726-4C3C-A614-79F4D6627B57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6489-40FE-9B52-3F62D5DC3253}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-521F-4CC5-8F39-9105EE9FDB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A7F-46A2-BFFC-F4BA039E8AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10A6-4E7A-A593-3A75A6804AA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4A6-4100-A2A0-D71F4C3847F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5891-4429-9571-85A6710EAE09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DF5-4199-AAC9-FF13F5D4596C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BB0-4973-B174-E72693277E4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6FD-4AAA-868A-B2832A77701E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0FB-4264-A2E3-0BE769DE1AEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE33-4ACE-8F41-95CB8DEDF300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C22F-4674-AD98-3F40C6F8F67D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F56A-42AD-9D65-11FD89B8832B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FE5-4F19-AA25-F9817FBE1D28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-331C-414C-8F24-0B8DF505731C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-203E-47BE-A492-FB80056A2016}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9264-4179-968E-56F747FB046E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+        <c:axId val="1000"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,65 +5796,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>